--- a/AER notes.xlsx
+++ b/AER notes.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PaulWard\GitHub\Energy_Poverty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52D10BF-7281-4EAF-AFEC-3FF9878589BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A091C5D4-0450-42F1-B018-D54808AAB139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17895" yWindow="0" windowWidth="18210" windowHeight="24105" xr2:uid="{7CCB7C5B-91F8-43F7-BEF9-FA3839459B56}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="18210" windowHeight="24105" activeTab="1" xr2:uid="{7CCB7C5B-91F8-43F7-BEF9-FA3839459B56}"/>
   </bookViews>
   <sheets>
-    <sheet name="Old sheets" sheetId="1" r:id="rId1"/>
-    <sheet name="New June 2024" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheets" sheetId="1" r:id="rId1"/>
+    <sheet name="June 2024" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="134">
   <si>
     <t>https://www.aer.gov.au/system/files/Q2%202018-19%20Retail%20Performance%20Data.XLSX</t>
   </si>
@@ -354,25 +354,91 @@
     <t>Q3 2023-24</t>
   </si>
   <si>
-    <t>Schedule 4 - Quarter 3 2023-24 Retail Performance Data</t>
-  </si>
-  <si>
     <t>https://www.aer.gov.au/system/files/2024-06/Schedule%204%20-%20Quarter%203%202023-24%20Retail%20Performance%20Data.xlsm</t>
   </si>
   <si>
-    <t>Schedule 4 - Quarter 2 2022-23 retail performance data</t>
-  </si>
-  <si>
-    <t>Schedule 4 - Retail Performance Data Q1 2021</t>
-  </si>
-  <si>
     <t>https://www.aer.gov.au/system/files/Schedule%204%20-%20Q4%202019-20%20Retail%20Performance%20Data.xlsx</t>
   </si>
   <si>
-    <t>Schedule 4 - Q4 2019-20 Retail Performance Data</t>
-  </si>
-  <si>
-    <t>Schedule 4 - Q3 2018-19 Retail Performance Data</t>
+    <t>Q1 2015-16</t>
+  </si>
+  <si>
+    <t>Q2 2015-16</t>
+  </si>
+  <si>
+    <t>Q3 2015-16</t>
+  </si>
+  <si>
+    <t>Q4 2015-16</t>
+  </si>
+  <si>
+    <t>Q1 2016-17</t>
+  </si>
+  <si>
+    <t>Q2 2016-17</t>
+  </si>
+  <si>
+    <t>Q3 2016-17</t>
+  </si>
+  <si>
+    <t>Q4 2016-17</t>
+  </si>
+  <si>
+    <t>Q2 2017-18</t>
+  </si>
+  <si>
+    <t>Q1 2017-18</t>
+  </si>
+  <si>
+    <t>Q4 18/19</t>
+  </si>
+  <si>
+    <t>Q219/20</t>
+  </si>
+  <si>
+    <t>Q4 19/20</t>
+  </si>
+  <si>
+    <t>Q3 18-19</t>
+  </si>
+  <si>
+    <t>Q1 20/21</t>
+  </si>
+  <si>
+    <t>Q3 21/22</t>
+  </si>
+  <si>
+    <t>Q2 20/21</t>
+  </si>
+  <si>
+    <t>Q2 21/22</t>
+  </si>
+  <si>
+    <t>Q3 20/21</t>
+  </si>
+  <si>
+    <t>Q4 20/21</t>
+  </si>
+  <si>
+    <t>Q4 21/22</t>
+  </si>
+  <si>
+    <t>Q3 22/23</t>
+  </si>
+  <si>
+    <t>Q3 23/24</t>
+  </si>
+  <si>
+    <t>Q2 21/23</t>
+  </si>
+  <si>
+    <t>Q2 22/23</t>
+  </si>
+  <si>
+    <t>Q1 21/22</t>
+  </si>
+  <si>
+    <t>Q1 19/20</t>
   </si>
 </sst>
 </file>
@@ -380,9 +446,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -421,18 +487,83 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -444,15 +575,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -461,28 +594,394 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Comma 2" xfId="5" xr:uid="{85DBB5BC-FFF0-49AB-8BE3-8D80C5BEAA33}"/>
+    <cellStyle name="Comma 3" xfId="6" xr:uid="{F5AC894C-012A-41C5-96DB-890E780539E1}"/>
+    <cellStyle name="Comma 4" xfId="7" xr:uid="{04CDB011-27DB-47DE-960C-D14F08E07260}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{90007D5D-0A5F-4D76-862D-774FAE30EBCB}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{A1A55729-1057-4DBC-93B7-EA8421D17EB0}"/>
     <cellStyle name="Percent 2" xfId="4" xr:uid="{42ED275F-B9FB-43FA-8C2C-CD15F6B924A4}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -833,17 +1332,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EF8E65-DF29-428A-BAF1-F16317DF92C8}">
-  <dimension ref="A3:P114"/>
+  <dimension ref="A3:U186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174:D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="32.42578125" style="2" customWidth="1"/>
-    <col min="3" max="16" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" style="2" customWidth="1"/>
+    <col min="4" max="16" width="15.7109375" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1669,7 +2168,7 @@
       <c r="B80" t="s">
         <v>79</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1825,73 +2324,166 @@
       <c r="B96"/>
       <c r="C96"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
+      <c r="T102" s="11"/>
+      <c r="U102" s="11"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="11"/>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="11"/>
+      <c r="R103" s="11"/>
+      <c r="S103" s="11"/>
+      <c r="T103" s="11"/>
+      <c r="U103" s="11"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11"/>
+      <c r="Q104" s="11"/>
+      <c r="R104" s="11"/>
+      <c r="S104" s="11"/>
+      <c r="T104" s="11"/>
+      <c r="U104" s="11"/>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J105" s="11"/>
+      <c r="K105" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N105" s="11"/>
+      <c r="O105" s="11"/>
+      <c r="P105" s="11"/>
+      <c r="Q105" s="11"/>
+      <c r="R105" s="11"/>
+      <c r="S105" s="11"/>
+      <c r="T105" s="11"/>
+      <c r="U105" s="11"/>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J106" s="11"/>
+      <c r="K106" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L106" s="6"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="11"/>
+      <c r="P106" s="11"/>
+      <c r="Q106" s="11"/>
+      <c r="R106" s="11"/>
+      <c r="S106" s="11"/>
+      <c r="T106" s="11"/>
+      <c r="U106" s="11"/>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J107" s="11"/>
+      <c r="K107" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L107" s="6"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11"/>
+      <c r="Q107" s="11"/>
+      <c r="R107" s="11"/>
+      <c r="S107" s="11"/>
+      <c r="T107" s="11"/>
+      <c r="U107" s="11"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>15</v>
       </c>
       <c r="B108" t="s">
         <v>93</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J108" s="11"/>
+      <c r="K108" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L108" s="6"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
+      <c r="Q108" s="11"/>
+      <c r="R108" s="11"/>
+      <c r="S108" s="11"/>
+      <c r="T108" s="11"/>
+      <c r="U108" s="11"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -1901,8 +2493,26 @@
       <c r="C109" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J109" s="11"/>
+      <c r="K109" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L109" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N109" s="11"/>
+      <c r="O109" s="11"/>
+      <c r="P109" s="11"/>
+      <c r="Q109" s="11"/>
+      <c r="R109" s="11"/>
+      <c r="S109" s="11"/>
+      <c r="T109" s="11"/>
+      <c r="U109" s="11"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>23</v>
       </c>
@@ -1912,8 +2522,22 @@
       <c r="C110" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M110" s="4"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
+      <c r="Q110" s="11"/>
+      <c r="R110" s="11"/>
+      <c r="S110" s="11"/>
+      <c r="T110" s="11"/>
+      <c r="U110" s="11"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>77</v>
       </c>
@@ -1923,8 +2547,22 @@
       <c r="C111" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M111" s="6"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11"/>
+      <c r="Q111" s="11"/>
+      <c r="R111" s="11"/>
+      <c r="S111" s="11"/>
+      <c r="T111" s="11"/>
+      <c r="U111" s="11"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -1934,8 +2572,22 @@
       <c r="C112" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M112" s="4"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="11"/>
+      <c r="Q112" s="11"/>
+      <c r="R112" s="11"/>
+      <c r="S112" s="11"/>
+      <c r="T112" s="11"/>
+      <c r="U112" s="11"/>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>32</v>
       </c>
@@ -1945,8 +2597,25 @@
       <c r="C113" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P113" s="11"/>
+      <c r="Q113" s="11"/>
+      <c r="R113" s="11"/>
+      <c r="S113" s="11"/>
+      <c r="T113" s="11"/>
+      <c r="U113" s="11"/>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>51</v>
       </c>
@@ -1956,18 +2625,661 @@
       <c r="C114" t="s">
         <v>60</v>
       </c>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N114" s="7"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="11"/>
+      <c r="Q114" s="11"/>
+      <c r="R114" s="11"/>
+      <c r="S114" s="11"/>
+      <c r="T114" s="11"/>
+      <c r="U114" s="11"/>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N115" s="7"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="11"/>
+      <c r="Q115" s="11"/>
+      <c r="R115" s="11"/>
+      <c r="S115" s="11"/>
+      <c r="T115" s="11"/>
+      <c r="U115" s="11"/>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N116" s="9"/>
+      <c r="O116"/>
+      <c r="P116" s="11"/>
+      <c r="Q116" s="11"/>
+      <c r="R116" s="11"/>
+      <c r="S116" s="11"/>
+      <c r="T116" s="11"/>
+      <c r="U116" s="11"/>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C117" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N117" s="9"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="11"/>
+      <c r="Q117" s="11"/>
+      <c r="R117" s="11"/>
+      <c r="S117" s="11"/>
+      <c r="T117" s="11"/>
+      <c r="U117" s="11"/>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C118" s="14"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="11"/>
+      <c r="Q118" s="11"/>
+      <c r="R118" s="11"/>
+      <c r="S118" s="11"/>
+      <c r="T118" s="11"/>
+      <c r="U118" s="11"/>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C119" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="11"/>
+      <c r="Q119" s="11"/>
+      <c r="R119" s="11"/>
+      <c r="S119" s="11"/>
+      <c r="T119" s="11"/>
+      <c r="U119" s="11"/>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C120" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
+      <c r="O120" s="11"/>
+      <c r="P120" s="11"/>
+      <c r="Q120" s="11"/>
+      <c r="R120" s="11"/>
+      <c r="S120" s="11"/>
+      <c r="T120" s="11"/>
+      <c r="U120" s="11"/>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C121" s="14"/>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C123" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B124" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B125" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="14"/>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B126" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B127" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B128" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B129" s="6"/>
+      <c r="C129" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B130" s="4"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B131" s="4"/>
+      <c r="C131" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B132" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B133" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B134" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B135" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D135" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B136" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B137" s="4"/>
+      <c r="C137" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B138" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B139" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B140" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B141" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141" s="7"/>
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B142" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142" s="7"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B143" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="7"/>
+      <c r="D143" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B144" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B145" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B146" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B147" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B148" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B149" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C149" s="7"/>
+      <c r="D149" s="4"/>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B150" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C150" s="7"/>
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B151" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C151" s="7"/>
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B152" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C152" s="7"/>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B153" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C153" s="7"/>
+      <c r="D153" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B154" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C154" s="7"/>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B155" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B156" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C156" s="7"/>
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B157" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C157" s="7"/>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B158" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C158" s="7"/>
+      <c r="D158" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B159" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C159" s="7"/>
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B160" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C160" s="7"/>
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B161" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C161" s="7"/>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B162" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C162" s="7"/>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B174" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D174" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B175" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D175" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B176" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D176" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B177" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D177" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B178" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D178" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B179" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D179" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B180" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D180" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B181" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D181" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B182" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D182" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B183" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D183" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B184" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D184" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B185" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D185" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B186" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D186" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="C1:C116 C163:C173 C187:C1048576">
+    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:C81 C83:C84 C86:C89 C91:C95 C97:C101 C77 C103:C114 C75">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D132">
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D135">
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D144">
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N113">
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O116">
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117:C120 C123:C124 C126:C135">
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:C120 C123:C124 C126:C129 C131:C135 C117">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C91" r:id="rId1" xr:uid="{02E2BF99-7FAE-4769-A2FD-A4D8D607E9B5}"/>
+    <hyperlink ref="C80" r:id="rId2" xr:uid="{B5CA2287-38B3-449B-BDBE-B9CF5F09B8BE}"/>
+    <hyperlink ref="C108" r:id="rId3" xr:uid="{13249886-536E-44B6-B94E-EB23DF237E99}"/>
+    <hyperlink ref="C131" r:id="rId4" xr:uid="{ECDF3D1A-C594-4E7F-BF45-47CA03540BB6}"/>
+    <hyperlink ref="C120" r:id="rId5" xr:uid="{308E9894-2DF9-4723-A489-57954D790E84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1975,235 +3287,388 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40AD11F-E6C1-486F-9424-BB3F8C8C33AD}">
-  <dimension ref="B6:G50"/>
+  <dimension ref="B9:G97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="118" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" style="13" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="120.7109375" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="11"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C25" s="11"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="10" t="s">
+    <row r="9" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="34"/>
+    </row>
+    <row r="16" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C27" s="10" t="s">
+    </row>
+    <row r="20" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C28" s="10" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C29" s="10" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C30" s="10" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D31" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C32" s="9" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C33" s="9" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C34" s="9" t="s">
+      <c r="C26" s="19"/>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C35" s="9" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C29" s="25"/>
+      <c r="D29" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C37" s="8" t="s">
+    <row r="30" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C38" s="8" t="s">
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+    </row>
+    <row r="31" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C39" s="8" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="26"/>
+    </row>
+    <row r="32" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C40" s="8" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="26"/>
+    </row>
+    <row r="33" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+    </row>
+    <row r="35" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+    </row>
+    <row r="36" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C42" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C43" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C44" s="7" t="s">
+    <row r="37" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C45" s="7" t="s">
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+    </row>
+    <row r="38" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+    </row>
+    <row r="39" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="C39" s="22"/>
+      <c r="D39" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C47" s="5" t="s">
+    </row>
+    <row r="40" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C48" s="5" t="s">
+      <c r="C40" s="22"/>
+      <c r="D40" s="28"/>
+    </row>
+    <row r="41" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="5" t="s">
+      <c r="C41" s="22"/>
+      <c r="D41" s="28"/>
+    </row>
+    <row r="42" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="5" t="s">
+      <c r="C42" s="22"/>
+      <c r="D42" s="28"/>
+    </row>
+    <row r="43" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="12" t="s">
         <v>104</v>
       </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="28"/>
+    </row>
+    <row r="44" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="12"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="29"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="29"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="29"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="29"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" s="29"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="29"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" s="29"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" s="29"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86" s="29"/>
+      <c r="C86" s="30"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B91" s="29"/>
+      <c r="C91" s="30"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B93" s="29"/>
+      <c r="C93" s="30"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="D19:D23"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{2C3CC872-FA69-4E96-9412-A6FF50335FA3}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{9D7F00DF-7F0B-4A33-ADF5-3C6A0A331C8F}"/>
+    <hyperlink ref="D18" r:id="rId3" xr:uid="{89856841-74D9-4A78-8590-0408A826DC9A}"/>
+    <hyperlink ref="D19" r:id="rId4" xr:uid="{121A223F-6A1C-42AE-9F64-CBF62C4E6218}"/>
+    <hyperlink ref="D24" r:id="rId5" xr:uid="{3DF906E8-D494-427D-BA6A-122AC127C723}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>